--- a/public/youzan-goods.xlsx
+++ b/public/youzan-goods.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhumingliang/www/youzan/public/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhumingliang/Desktop/youzna/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15960"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>商品标题</t>
   </si>
@@ -97,78 +97,75 @@
     <t>www.test.com</t>
   </si>
   <si>
-    <t>清货区</t>
+    <t>颜色:白色,尺寸:L;颜色:白色,尺寸:XL;颜色:黑色,尺寸:L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100;200;300</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001;1002;1004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>男人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜色:蓝色,尺码:3A;颜色:蓝色,尺码:4A;颜色:蓝色,尺码:5A;颜色:蓝色,尺码:6A;颜色:黑色,尺码:3A;颜色:黑色,尺码:4A;颜色:白色,尺码:5A;颜色:白色,尺码:6A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100;200;300;100;200;300;100;200;300;200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001;2002;2003;2004;2005;2006;2007;2008;2009;2010</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>duanku.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是一个商品描述，这是第一张短袖图片*https://img.yzcdn.cn/upload_files/2017/05/05/FtdptE5o8bdbQ--aBmaa5jiQnKf4.png*，图片之后还有文字。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是一个商品描述，这是第一张短裤图片*https://img.yzcdn.cn/upload_files/2017/05/12/Fh7lGbuiyR71DaFbAQb6b76ahopR.png*，图片之后还有文字。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 淘宝价：189</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RMB:189</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>清货区;帅酷;酷炫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否显示库存</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>酷帅-短袖</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>颜色:白色,尺寸:L;颜色:白色,尺寸:XL;颜色:黑色,尺寸:L</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>100.00;100.00;100.00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>100;200;300</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1001;1002;1004</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是一个商品描述，这是第一张短袖图片*https://img.yzcdn.cn/upload_files/2017/05/05/FtdptE5o8bdbQ--aBmaa5jiQnKf4.png*，图片之后还有文字。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>男人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>清货区;衬衫;卫衣</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>duanxiu.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>夏日凉凉-短裤</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>颜色:蓝色,尺码:3A;颜色:蓝色,尺码:4A;颜色:蓝色,尺码:5A;颜色:蓝色,尺码:6A;颜色:黑色,尺码:3A;颜色:黑色,尺码:4A;颜色:白色,尺码:5A;颜色:白色,尺码:6A</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>100.00;100.00;100.00;100.00;100.00;100.00;100.00;100.00;100.00;100.00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>100;200;300;100;200;300;100;200;300;200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2001;2002;2003;2004;2005;2006;2007;2008;2009;2010</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是一个商品描述，这是第一张短裤图片*https://img.yzcdn.cn/upload_files/2017/05/12/Fh7lGbuiyR71DaFbAQb6b76ahopR.png*，图片之后还有文字。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>男人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>duanku.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否显示库存</t>
+    <t>商品名称:夏日凉凉-短裤;成分:100%纯棉;价格:¥80</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOS</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -176,11 +173,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>100%纯棉;短袖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>是否参加会员折扣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯棉;这一条描述很长很长。。。。。。。。。。。。。。。。。主要未来测试分行的。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>duanxiu.png;duanku.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100;100;100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100;100;100;100;100;100;100;100;100;100</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -201,14 +210,11 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -549,26 +555,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="129" zoomScaleNormal="129" zoomScalePageLayoutView="129" workbookViewId="0">
-      <selection activeCell="Y5" sqref="Y5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="129" zoomScaleNormal="129" zoomScalePageLayoutView="129" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="53.83203125" customWidth="1"/>
+    <col min="2" max="2" width="81.1640625" customWidth="1"/>
     <col min="3" max="3" width="24.83203125" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" customWidth="1"/>
+    <col min="5" max="5" width="54" customWidth="1"/>
     <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
     <col min="14" max="14" width="16.83203125" customWidth="1"/>
     <col min="15" max="15" width="139" customWidth="1"/>
     <col min="16" max="16" width="25.6640625" customWidth="1"/>
     <col min="17" max="17" width="16.5" customWidth="1"/>
+    <col min="19" max="19" width="23.6640625" customWidth="1"/>
     <col min="20" max="20" width="31.1640625" customWidth="1"/>
-    <col min="21" max="21" width="24.1640625" customWidth="1"/>
-    <col min="22" max="22" width="18" customWidth="1"/>
-    <col min="23" max="23" width="16" customWidth="1"/>
+    <col min="21" max="21" width="22.1640625" customWidth="1"/>
+    <col min="22" max="22" width="63" customWidth="1"/>
+    <col min="23" max="23" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.15">
@@ -633,36 +641,36 @@
         <v>19</v>
       </c>
       <c r="U1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V1" t="s">
         <v>40</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>41</v>
-      </c>
-      <c r="W1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>27</v>
       </c>
       <c r="F2">
         <v>100</v>
       </c>
       <c r="G2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H2">
         <v>10</v>
@@ -670,8 +678,8 @@
       <c r="I2">
         <v>12111</v>
       </c>
-      <c r="J2">
-        <v>189</v>
+      <c r="J2" t="s">
+        <v>32</v>
       </c>
       <c r="K2" t="s">
         <v>20</v>
@@ -686,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>21</v>
@@ -695,13 +703,13 @@
         <v>100</v>
       </c>
       <c r="R2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="S2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="T2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="U2">
         <v>1</v>
@@ -715,25 +723,25 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F3">
         <v>100</v>
       </c>
       <c r="G3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H3">
         <v>10</v>
@@ -741,8 +749,8 @@
       <c r="I3">
         <v>121112</v>
       </c>
-      <c r="J3">
-        <v>189</v>
+      <c r="J3" t="s">
+        <v>33</v>
       </c>
       <c r="K3" t="s">
         <v>20</v>
@@ -757,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>21</v>
@@ -766,19 +774,19 @@
         <v>100</v>
       </c>
       <c r="R3" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="S3" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="T3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="U3">
         <v>1</v>
       </c>
       <c r="V3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="W3">
         <v>0</v>

--- a/public/youzan-goods.xlsx
+++ b/public/youzan-goods.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>商品标题</t>
   </si>
@@ -97,54 +97,18 @@
     <t>www.test.com</t>
   </si>
   <si>
-    <t>颜色:白色,尺寸:L;颜色:白色,尺寸:XL;颜色:黑色,尺寸:L</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>100;200;300</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1001;1002;1004</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>男人</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>颜色:蓝色,尺码:3A;颜色:蓝色,尺码:4A;颜色:蓝色,尺码:5A;颜色:蓝色,尺码:6A;颜色:黑色,尺码:3A;颜色:黑色,尺码:4A;颜色:白色,尺码:5A;颜色:白色,尺码:6A</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>100;200;300;100;200;300;100;200;300;200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2001;2002;2003;2004;2005;2006;2007;2008;2009;2010</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>duanku.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>这是一个商品描述，这是第一张短袖图片*https://img.yzcdn.cn/upload_files/2017/05/05/FtdptE5o8bdbQ--aBmaa5jiQnKf4.png*，图片之后还有文字。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>这是一个商品描述，这是第一张短裤图片*https://img.yzcdn.cn/upload_files/2017/05/12/Fh7lGbuiyR71DaFbAQb6b76ahopR.png*，图片之后还有文字。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 淘宝价：189</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>RMB:189</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>清货区;帅酷;酷炫</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -157,18 +121,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>夏日凉凉-短裤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品名称:夏日凉凉-短裤;成分:100%纯棉;价格:¥80</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>商品描述（副）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -185,11 +137,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>100;100;100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>100;100;100;100;100;100;100;100;100;100</t>
+    <t>颜色:白色,尺寸:L;颜色:白色,尺寸:XL;颜色:黑色,尺寸:L;颜色:黑色,尺寸:XL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100;100;100;100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100;200;300;400</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001;1002;1004;1005</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -553,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="129" zoomScaleNormal="129" zoomScalePageLayoutView="129" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -641,30 +601,30 @@
         <v>19</v>
       </c>
       <c r="U1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="V1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="W1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -679,7 +639,7 @@
         <v>12111</v>
       </c>
       <c r="J2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
         <v>20</v>
@@ -694,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>21</v>
@@ -703,100 +663,28 @@
         <v>100</v>
       </c>
       <c r="R2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" t="s">
         <v>25</v>
       </c>
-      <c r="S2" t="s">
-        <v>34</v>
-      </c>
       <c r="T2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="U2">
         <v>1</v>
       </c>
       <c r="V2" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="W2">
         <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3">
-        <v>100</v>
-      </c>
-      <c r="G3">
-        <v>100</v>
-      </c>
-      <c r="H3">
-        <v>10</v>
-      </c>
-      <c r="I3">
-        <v>121112</v>
-      </c>
-      <c r="J3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3">
-        <v>500</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q3">
-        <v>100</v>
-      </c>
-      <c r="R3" t="s">
-        <v>25</v>
-      </c>
-      <c r="S3" t="s">
-        <v>39</v>
-      </c>
-      <c r="T3" t="s">
-        <v>29</v>
-      </c>
-      <c r="U3">
-        <v>1</v>
-      </c>
-      <c r="V3" t="s">
-        <v>38</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="P2" r:id="rId1"/>
-    <hyperlink ref="P3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
